--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1341.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1341.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.115402862414211</v>
+        <v>1.157808303833008</v>
       </c>
       <c r="B1">
-        <v>2.606156474677133</v>
+        <v>2.569025754928589</v>
       </c>
       <c r="C1">
-        <v>4.478051878921974</v>
+        <v>9.542977333068848</v>
       </c>
       <c r="D1">
-        <v>2.515617490484026</v>
+        <v>2.120355606079102</v>
       </c>
       <c r="E1">
-        <v>1.190873943148998</v>
+        <v>1.239757180213928</v>
       </c>
     </row>
   </sheetData>
